--- a/需求分析/需求跟踪矩阵/需求跟踪矩阵.xlsx
+++ b/需求分析/需求跟踪矩阵/需求跟踪矩阵.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="84">
   <si>
     <t>需求跟踪矩阵</t>
   </si>
@@ -483,6 +483,9 @@
   </si>
   <si>
     <t>用户举报处理（管理员用户）</t>
+  </si>
+  <si>
+    <t>FunReq-URT-0</t>
   </si>
   <si>
     <t>QuaReq-SimulationUI-0</t>
@@ -496,10 +499,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -541,6 +544,95 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -549,13 +641,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -564,76 +649,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,7 +667,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,22 +682,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -700,13 +703,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,13 +871,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,151 +883,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,15 +894,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -937,6 +931,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -953,6 +956,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -980,17 +994,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -999,10 +1002,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1011,133 +1014,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1485,10 +1488,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2151,16 +2154,33 @@
       <c r="A40" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" ht="18.75" spans="1:5">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="3" t="s">
+      <c r="C41" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>10</v>
       </c>
     </row>
